--- a/uml/koPerFaces.xlsx
+++ b/uml/koPerFaces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gaetan\_Bachelor\Bachelor_Documents\uml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09AEBFF-2774-4630-8722-D2F4E91D14EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88D75FD-71FB-4CD2-B768-EB58D5F952B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E8D6DB90-E65A-49A7-9AE3-F45ADCEF99A2}"/>
   </bookViews>
@@ -33,8 +33,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Taille du fichier STL [Ko]</t>
+  </si>
+  <si>
+    <t>Nombre de faces du fichier</t>
+  </si>
+  <si>
+    <t>Rapport nbre de faces/taille</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -52,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -60,12 +77,217 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,6 +639,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Nombre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> de faces en fonction de la taille du fichier</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -481,10 +733,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$C$13:$C$18</c:f>
+              <c:f>Feuil1!$C$13:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
@@ -498,9 +750,15 @@
                   <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3246</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>4883</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>7656</c:v>
                 </c:pt>
               </c:numCache>
@@ -508,10 +766,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$D$13:$D$18</c:f>
+              <c:f>Feuil1!$D$13:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1310</c:v>
                 </c:pt>
@@ -525,9 +783,15 @@
                   <c:v>14220</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>39295</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>66472</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>156672</c:v>
                 </c:pt>
               </c:numCache>
@@ -572,6 +836,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Taille</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> du fichier</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t> [Ko]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -634,6 +975,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Nombre</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> de faces</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1882,13 +2297,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:rowOff>17143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148183</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1899,7 +2314,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2213,13 +2630,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF03309-B462-4E8C-A00D-8F80F6BF7AD8}">
-  <dimension ref="C7:E18"/>
+  <dimension ref="C7:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="23.83984375" customWidth="1"/>
+    <col min="4" max="9" width="11.15625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="7" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C7">
@@ -2309,27 +2730,147 @@
         <v>20.46043165467626</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17">
-        <v>3246</v>
-      </c>
-      <c r="D17">
-        <v>66472</v>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="1">
+        <v>1919</v>
+      </c>
+      <c r="D17" s="1">
+        <v>39295</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>20.478126925446702</v>
+        <v>20.476810838978636</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C18">
-        <v>7656</v>
+        <v>3246</v>
       </c>
       <c r="D18">
-        <v>156672</v>
+        <v>66472</v>
       </c>
       <c r="E18">
         <f>D18/C18</f>
+        <v>20.478126925446702</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19">
+        <v>4883</v>
+      </c>
+      <c r="D19">
+        <v>100000</v>
+      </c>
+      <c r="E19">
+        <f>D19/C19</f>
+        <v>20.47921359819783</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20">
+        <v>7656</v>
+      </c>
+      <c r="D20">
+        <v>156672</v>
+      </c>
+      <c r="E20">
+        <f>D20/C20</f>
+        <v>20.463949843260188</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2">
+        <v>223</v>
+      </c>
+      <c r="F26" s="2">
+        <v>443</v>
+      </c>
+      <c r="G26" s="2">
+        <v>695</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1919</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3246</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4883</v>
+      </c>
+      <c r="K26" s="3">
+        <v>7656</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1310</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4563</v>
+      </c>
+      <c r="F27" s="8">
+        <v>9068</v>
+      </c>
+      <c r="G27" s="8">
+        <v>14220</v>
+      </c>
+      <c r="H27" s="8">
+        <v>39295</v>
+      </c>
+      <c r="I27" s="8">
+        <v>66472</v>
+      </c>
+      <c r="J27" s="8">
+        <v>100000</v>
+      </c>
+      <c r="K27" s="9">
+        <v>156672</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C28" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11">
+        <f>D27/D26</f>
+        <v>20.153846153846153</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" ref="E28:I28" si="1">E27/E26</f>
+        <v>20.461883408071749</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="1"/>
+        <v>20.469525959367946</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="1"/>
+        <v>20.46043165467626</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="1"/>
+        <v>20.476810838978636</v>
+      </c>
+      <c r="I28" s="12">
+        <f>I27/I26</f>
+        <v>20.478126925446702</v>
+      </c>
+      <c r="J28" s="12">
+        <f>J27/J26</f>
+        <v>20.47921359819783</v>
+      </c>
+      <c r="K28" s="13">
+        <f>K27/K26</f>
         <v>20.463949843260188</v>
       </c>
     </row>
